--- a/data/financial_statements/sofp/WYNN.xlsx
+++ b/data/financial_statements/sofp/WYNN.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,144 +610,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1949000000</v>
+        <v>1948541000</v>
       </c>
       <c r="C2">
-        <v>2021000000</v>
+        <v>2020503000</v>
       </c>
       <c r="D2">
-        <v>2323000000</v>
+        <v>2323087000</v>
       </c>
       <c r="E2">
-        <v>2527000000</v>
+        <v>2527426000</v>
       </c>
       <c r="F2">
-        <v>2479000000</v>
+        <v>2479375000</v>
       </c>
       <c r="G2">
         <v>2805293000</v>
@@ -742,23 +853,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>210000000</v>
+        <v>210032000</v>
       </c>
       <c r="C3">
-        <v>186000000</v>
+        <v>186380000</v>
       </c>
       <c r="D3">
-        <v>187000000</v>
+        <v>187007000</v>
       </c>
       <c r="E3">
-        <v>199000000</v>
+        <v>199463000</v>
       </c>
       <c r="F3">
-        <v>222000000</v>
+        <v>221933000</v>
       </c>
       <c r="G3">
         <v>245959000</v>
@@ -864,23 +975,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>68000000</v>
+        <v>68310000</v>
       </c>
       <c r="C4">
-        <v>69000000</v>
+        <v>69075000</v>
       </c>
       <c r="D4">
-        <v>72000000</v>
+        <v>72244000</v>
       </c>
       <c r="E4">
-        <v>70000000</v>
+        <v>69967000</v>
       </c>
       <c r="F4">
-        <v>64000000</v>
+        <v>64043000</v>
       </c>
       <c r="G4">
         <v>66100000</v>
@@ -986,8 +1097,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>97000000</v>
@@ -1027,23 +1138,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2323000000</v>
+        <v>2323407000</v>
       </c>
       <c r="C6">
-        <v>2371000000</v>
+        <v>2371214000</v>
       </c>
       <c r="D6">
-        <v>2666000000</v>
+        <v>2665607000</v>
       </c>
       <c r="E6">
-        <v>2876000000</v>
+        <v>2875917000</v>
       </c>
       <c r="F6">
-        <v>2856000000</v>
+        <v>2855886000</v>
       </c>
       <c r="G6">
         <v>3215089000</v>
@@ -1149,23 +1260,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>8847000000</v>
+        <v>8498814000</v>
       </c>
       <c r="C7">
-        <v>8953000000</v>
+        <v>8596653000</v>
       </c>
       <c r="D7">
-        <v>9035000000</v>
+        <v>8670727000</v>
       </c>
       <c r="E7">
-        <v>9137000000</v>
+        <v>8765308000</v>
       </c>
       <c r="F7">
-        <v>9238000000</v>
+        <v>8859157000</v>
       </c>
       <c r="G7">
         <v>8925386000</v>
@@ -1271,8 +1382,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>154000000</v>
@@ -1378,23 +1489,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>251000000</v>
+        <v>250901000</v>
       </c>
       <c r="C9">
-        <v>257000000</v>
+        <v>256519000</v>
       </c>
       <c r="D9">
-        <v>272000000</v>
+        <v>272292000</v>
       </c>
       <c r="E9">
-        <v>308000000</v>
+        <v>307578000</v>
       </c>
       <c r="F9">
-        <v>286000000</v>
+        <v>286124000</v>
       </c>
       <c r="G9">
         <v>291510000</v>
@@ -1500,8 +1611,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K10">
         <v>406947000</v>
@@ -1538,23 +1649,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>204000000</v>
+        <v>358321000</v>
       </c>
       <c r="C11">
-        <v>204000000</v>
+        <v>207317000</v>
       </c>
       <c r="D11">
-        <v>203000000</v>
+        <v>206793000</v>
       </c>
       <c r="E11">
-        <v>207000000</v>
+        <v>210658000</v>
       </c>
       <c r="F11">
-        <v>224000000</v>
+        <v>228184000</v>
       </c>
       <c r="G11">
         <v>204179000</v>
@@ -1660,8 +1771,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>9455939000</v>
@@ -1782,23 +1893,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>11779000000</v>
+        <v>11779340000</v>
       </c>
       <c r="C13">
-        <v>11789000000</v>
+        <v>11788530000</v>
       </c>
       <c r="D13">
-        <v>12179000000</v>
+        <v>12179310000</v>
       </c>
       <c r="E13">
-        <v>12531000000</v>
+        <v>12530830000</v>
       </c>
       <c r="F13">
-        <v>12608000000</v>
+        <v>12607700000</v>
       </c>
       <c r="G13">
         <v>13022670000</v>
@@ -1904,23 +2015,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>139000000</v>
+        <v>139154000</v>
       </c>
       <c r="C14">
-        <v>154000000</v>
+        <v>153816000</v>
       </c>
       <c r="D14">
-        <v>165000000</v>
+        <v>164934000</v>
       </c>
       <c r="E14">
-        <v>171000000</v>
+        <v>170542000</v>
       </c>
       <c r="F14">
-        <v>155000000</v>
+        <v>154663000</v>
       </c>
       <c r="G14">
         <v>168143000</v>
@@ -2026,8 +2137,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="R15">
         <v>138816000</v>
@@ -2037,8 +2148,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>350689000</v>
@@ -2159,20 +2270,20 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>546000000</v>
+        <v>546078000</v>
       </c>
       <c r="C17">
-        <v>545000000</v>
+        <v>544632000</v>
       </c>
       <c r="D17">
         <v>50000000</v>
       </c>
       <c r="E17">
-        <v>77000000</v>
+        <v>50000000</v>
       </c>
       <c r="F17">
         <v>50000000</v>
@@ -2257,8 +2368,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2304,8 +2415,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AL19">
         <v>1551000</v>
@@ -2318,8 +2429,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="AD20">
         <v>4801000</v>
@@ -2353,23 +2464,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>916000000</v>
+        <v>436198000</v>
       </c>
       <c r="C21">
-        <v>894000000</v>
+        <v>412594000</v>
       </c>
       <c r="D21">
-        <v>899000000</v>
+        <v>423859000</v>
       </c>
       <c r="E21">
-        <v>967000000</v>
+        <v>436388000</v>
       </c>
       <c r="F21">
-        <v>1030000000</v>
+        <v>466004000</v>
       </c>
       <c r="G21">
         <v>501652000</v>
@@ -2475,23 +2586,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>1635000000</v>
+        <v>1635036000</v>
       </c>
       <c r="C22">
-        <v>1617000000</v>
+        <v>1617269000</v>
       </c>
       <c r="D22">
-        <v>1154000000</v>
+        <v>1154246000</v>
       </c>
       <c r="E22">
-        <v>1288000000</v>
+        <v>1287880000</v>
       </c>
       <c r="F22">
-        <v>1287000000</v>
+        <v>1286592000</v>
       </c>
       <c r="G22">
         <v>2538302000</v>
@@ -2597,23 +2708,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>11679000000</v>
+        <v>11570440000</v>
       </c>
       <c r="C23">
-        <v>11478000000</v>
+        <v>11367860000</v>
       </c>
       <c r="D23">
-        <v>11986000000</v>
+        <v>11872890000</v>
       </c>
       <c r="E23">
-        <v>12044000000</v>
+        <v>11884550000</v>
       </c>
       <c r="F23">
-        <v>11811000000</v>
+        <v>11693790000</v>
       </c>
       <c r="G23">
         <v>10612560000</v>
@@ -2719,8 +2830,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H24">
         <v>293000</v>
@@ -2799,23 +2910,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>63000000</v>
+        <v>62740000</v>
       </c>
       <c r="C25">
-        <v>68000000</v>
+        <v>68014000</v>
       </c>
       <c r="D25">
-        <v>72000000</v>
+        <v>72108000</v>
       </c>
       <c r="E25">
-        <v>35000000</v>
+        <v>79428000</v>
       </c>
       <c r="F25">
-        <v>103000000</v>
+        <v>102751000</v>
       </c>
       <c r="G25">
         <v>106171000</v>
@@ -2921,8 +3032,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>11741270000</v>
@@ -3043,23 +3154,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>13376000000</v>
+        <v>13376310000</v>
       </c>
       <c r="C27">
-        <v>13163000000</v>
+        <v>13162790000</v>
       </c>
       <c r="D27">
-        <v>13213000000</v>
+        <v>13212570000</v>
       </c>
       <c r="E27">
-        <v>13367000000</v>
+        <v>13367040000</v>
       </c>
       <c r="F27">
-        <v>13200000000</v>
+        <v>13200280000</v>
       </c>
       <c r="G27">
         <v>13376500000</v>
@@ -3165,8 +3276,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>3584357000</v>
@@ -3287,23 +3398,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>1000000</v>
+        <v>1321000</v>
       </c>
       <c r="C29">
-        <v>1000000</v>
+        <v>1320000</v>
       </c>
       <c r="D29">
-        <v>1000000</v>
+        <v>1318000</v>
       </c>
       <c r="E29">
-        <v>1000000</v>
+        <v>1314000</v>
       </c>
       <c r="F29">
-        <v>1000000</v>
+        <v>1314000</v>
       </c>
       <c r="G29">
         <v>1313000</v>
@@ -3409,23 +3520,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>-2744000000</v>
+        <v>-2744222000</v>
       </c>
       <c r="C30">
-        <v>-2601000000</v>
+        <v>-2601331000</v>
       </c>
       <c r="D30">
-        <v>-2471000000</v>
+        <v>-2471285000</v>
       </c>
       <c r="E30">
-        <v>-2288000000</v>
+        <v>-2288078000</v>
       </c>
       <c r="F30">
-        <v>-2111000000</v>
+        <v>-2110895000</v>
       </c>
       <c r="G30">
         <v>-1944668000</v>
@@ -3531,8 +3642,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>1614997000</v>
@@ -3653,23 +3764,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>-763000000</v>
+        <v>-1596963000</v>
       </c>
       <c r="C32">
-        <v>-609000000</v>
+        <v>-1374254000</v>
       </c>
       <c r="D32">
-        <v>-337000000</v>
+        <v>-1033259000</v>
       </c>
       <c r="E32">
-        <v>-214000000</v>
+        <v>-836214800</v>
       </c>
       <c r="F32">
-        <v>-53000000</v>
+        <v>-592589100</v>
       </c>
       <c r="G32">
         <v>-353839000</v>
@@ -3775,23 +3886,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>-763000000</v>
+        <v>-1596963000</v>
       </c>
       <c r="C33">
-        <v>-609000000</v>
+        <v>-1374254000</v>
       </c>
       <c r="D33">
-        <v>-337000000</v>
+        <v>-1033259000</v>
       </c>
       <c r="E33">
-        <v>-214000000</v>
+        <v>-836215000</v>
       </c>
       <c r="F33">
-        <v>-53000000</v>
+        <v>-592589000</v>
       </c>
       <c r="G33">
         <v>-353839000</v>
@@ -3897,8 +4008,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>11779340000</v>
@@ -4019,8 +4130,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>113373000</v>
@@ -4141,8 +4252,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>-1847864000</v>
@@ -4263,23 +4374,23 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>10276000000</v>
+        <v>10167977000</v>
       </c>
       <c r="C37">
-        <v>10002000000</v>
+        <v>9891989000</v>
       </c>
       <c r="D37">
-        <v>9713000000</v>
+        <v>9599803000</v>
       </c>
       <c r="E37">
-        <v>9594000000</v>
+        <v>9407124000</v>
       </c>
       <c r="F37">
-        <v>9382000000</v>
+        <v>9264415000</v>
       </c>
       <c r="G37">
         <v>9115620000</v>
@@ -4385,23 +4496,23 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
-        <v>12225000000</v>
+        <v>12116518000</v>
       </c>
       <c r="C38">
-        <v>12023000000</v>
+        <v>11912492000</v>
       </c>
       <c r="D38">
-        <v>12036000000</v>
+        <v>11922890000</v>
       </c>
       <c r="E38">
-        <v>12121000000</v>
+        <v>11934550000</v>
       </c>
       <c r="F38">
-        <v>11861000000</v>
+        <v>11743790000</v>
       </c>
       <c r="G38">
         <v>11920913000</v>
